--- a/the-north-star/3.0.0 by pintax/pairs_setup.xlsx
+++ b/the-north-star/3.0.0 by pintax/pairs_setup.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Crypto/The North Star 3.0.0 GM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00.Projet\Profit-Trailer-Settings\the-north-star\3.0.0 by pintax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{858EBCAA-60EA-064A-9932-71DB642C58F7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="DCA Calc" sheetId="2" r:id="rId1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -865,6 +864,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,14 +932,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,26 +950,16 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1342,66 +1341,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31B4C08-E256-4B4C-8ADB-0C6869AF8304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
-    <col min="13" max="24" width="10.6640625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="14.5" style="2"/>
+    <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" customWidth="1"/>
+    <col min="13" max="24" width="10.7109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:27" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+    <row r="1" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="2:27" s="3" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="2:27" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="4" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+    </row>
+    <row r="4" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="45" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1411,7 @@
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="74">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N4" s="47"/>
       <c r="AA4" s="3">
@@ -1420,14 +1419,14 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="78">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="80" t="s">
@@ -1436,10 +1435,10 @@
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
       <c r="J5" s="82">
-        <v>1.35</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="73"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -1454,20 +1453,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:27" s="33" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+    <row r="7" spans="2:27" s="33" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="55" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1482,7 @@
       <c r="I8" s="57"/>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1498,7 @@
       <c r="I9" s="57"/>
       <c r="J9" s="58"/>
     </row>
-    <row r="10" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>15</v>
       </c>
@@ -1515,20 +1514,20 @@
       <c r="I10" s="60"/>
       <c r="J10" s="61"/>
     </row>
-    <row r="11" spans="2:27" s="72" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="89" t="s">
+    <row r="11" spans="2:27" s="72" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:27" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="2:27" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
@@ -1542,10 +1541,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="63"/>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="108"/>
       <c r="I12" s="34" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1566,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
@@ -1579,22 +1578,22 @@
       </c>
       <c r="E13" s="49">
         <f>E5*(100-J6)*J4*0.0001</f>
-        <v>2.7000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F13" s="8">
         <f>E13*I13</f>
-        <v>8.0999999999999996E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="G13" s="48">
         <f>E5*(100-J6)*J5*0.0001</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H13" s="9">
         <f>G13*J13</f>
         <v>0</v>
       </c>
       <c r="I13" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="30">
         <v>0</v>
@@ -1614,7 +1613,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <v>1</v>
       </c>
@@ -1626,25 +1625,25 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ref="E14:E19" si="0">E13+(E13*D14*(1-C14))</f>
-        <v>5.2334100000000008E-3</v>
+        <v>2.7136199999999999E-3</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F19" si="1">E14*I14</f>
-        <v>1.0466820000000002E-2</v>
+        <v>2.7136199999999999E-3</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" ref="G14:G19" si="2">G13+(G13*D14*(1-C14))</f>
-        <v>2.6167050000000004E-3</v>
+        <v>2.7136199999999999E-3</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" ref="H14:H19" si="3">G14*J14</f>
-        <v>2.6167050000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1661,7 +1660,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24">
         <v>2</v>
       </c>
@@ -1673,25 +1672,25 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>6.7834152067500009E-3</v>
+        <v>3.5173264034999998E-3</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5173264034999998E-3</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>3.3917076033750005E-3</v>
+        <v>3.5173264034999998E-3</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="3"/>
-        <v>6.7834152067500009E-3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1708,7 +1707,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24">
         <v>3</v>
       </c>
@@ -1720,25 +1719,25 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>9.666366669618752E-3</v>
+        <v>5.0121901249874992E-3</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>1.9332733339237504E-2</v>
+        <v>5.0121901249874992E-3</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>4.833183334809376E-3</v>
+        <v>5.0121901249874992E-3</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="3"/>
-        <v>4.833183334809376E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1755,7 +1754,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24">
         <v>4</v>
       </c>
@@ -1767,25 +1766,25 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>1.2266135985412716E-2</v>
+        <v>6.3602186591028868E-3</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3602186591028868E-3</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>6.1330679927063579E-3</v>
+        <v>6.3602186591028868E-3</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="3"/>
-        <v>1.2266135985412716E-2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1802,7 +1801,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24">
         <v>5</v>
       </c>
@@ -1814,25 +1813,25 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
-        <v>1.7049929019723676E-2</v>
+        <v>8.8407039361530129E-3</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>1.7049929019723676E-2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="2"/>
-        <v>8.524964509861838E-3</v>
+        <v>8.8407039361530129E-3</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="3"/>
-        <v>1.7049929019723676E-2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1849,7 +1848,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>6</v>
       </c>
@@ -1861,7 +1860,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>2.8132382882544067E-2</v>
+        <v>1.4587161494652471E-2</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>1.4066191441272033E-2</v>
+        <v>1.4587161494652471E-2</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="3"/>
@@ -1896,29 +1895,29 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="2:24" s="3" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
+    <row r="20" spans="2:24" s="3" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="83">
         <f>SUM(F13:F19)</f>
-        <v>5.4949482358961174E-2</v>
+        <v>1.9003355187590387E-2</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
         <f>SUM(H13:H19)</f>
-        <v>4.3549368546695763E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="29" t="str">
         <f>CONCATENATE(SUM(I13:I19), " Pairs")</f>
-        <v>8 Pairs</v>
+        <v>5 Pairs</v>
       </c>
       <c r="J20" s="32" t="str">
         <f>CONCATENATE(SUM(J13:J19), " Pairs")</f>
-        <v>8 Pairs</v>
+        <v>0 Pairs</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1935,15 +1934,15 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="2:24" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101" t="s">
+    <row r="21" spans="2:24" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="26">
         <f>E20/E5</f>
-        <v>0.27474741179480583</v>
+        <v>0.47508387968975968</v>
       </c>
       <c r="F21" s="26" t="e">
         <f>F20/C4</f>
@@ -1951,14 +1950,14 @@
       </c>
       <c r="G21" s="26">
         <f>G20/E5</f>
-        <v>0.2177468427334788</v>
+        <v>0</v>
       </c>
       <c r="H21" s="27"/>
-      <c r="I21" s="106" t="str">
+      <c r="I21" s="114" t="str">
         <f>CONCATENATE(SUM(I13:J19)," Pairs Total")</f>
-        <v>16 Pairs Total</v>
+        <v>5 Pairs Total</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="115"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1974,20 +1973,20 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="92" t="s">
+    <row r="22" spans="2:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-    </row>
-    <row r="23" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
         <v>8</v>
       </c>
@@ -1995,16 +1994,16 @@
       <c r="D23" s="70"/>
       <c r="E23" s="64">
         <f>E20+G20</f>
-        <v>9.8498850905656937E-2</v>
+        <v>1.9003355187590387E-2</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="65">
         <f>(E20+G20)/E5</f>
-        <v>0.49249425452828466</v>
+        <v>0.47508387968975968</v>
       </c>
       <c r="J23" s="40"/>
     </row>
-    <row r="24" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="71" t="s">
         <v>9</v>
       </c>
@@ -2012,27 +2011,27 @@
       <c r="D24" s="46"/>
       <c r="E24" s="66">
         <f>E5-E23</f>
-        <v>0.10150114909434307</v>
+        <v>2.0996644812409614E-2</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="67">
         <f>1-G23</f>
-        <v>0.50750574547171534</v>
+        <v>0.52491612031024037</v>
       </c>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="92" t="s">
+    <row r="25" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2048,21 +2047,21 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="112" t="s">
+    <row r="26" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="116" t="str">
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="90" t="str">
         <f>"DEFAULT_initial_cost_percentage = " &amp; J4</f>
-        <v>DEFAULT_initial_cost_percentage = 2.7</v>
+        <v>DEFAULT_initial_cost_percentage = 7</v>
       </c>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2078,21 +2077,21 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="118" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="119"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="120" t="str">
+      <c r="E27" s="92" t="str">
         <f>CONCATENATE("max_trading_pairs = ", SUM(I13:I19))</f>
-        <v>max_trading_pairs = 8</v>
+        <v>max_trading_pairs = 5</v>
       </c>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2108,21 +2107,21 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="114" t="s">
+    <row r="28" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="117" t="str">
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="91" t="str">
         <f>"DEFAULT_initial_cost_percentage = " &amp; J5</f>
-        <v>DEFAULT_initial_cost_percentage = 1.35</v>
+        <v>DEFAULT_initial_cost_percentage = 7</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2138,18 +2137,18 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="2:24" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:24" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123" t="str">
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="93" t="str">
         <f>CONCATENATE("max_trading_pairs = ", SUM(I13:J19), " **")</f>
-        <v>max_trading_pairs = 16 **</v>
+        <v>max_trading_pairs = 5 **</v>
       </c>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
       <c r="H29" s="84"/>
       <c r="I29" s="84"/>
       <c r="J29" s="85"/>
@@ -2168,7 +2167,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="2:24" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2193,18 +2192,18 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="103" t="s">
+    <row r="31" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="105"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2220,7 +2219,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="36" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2245,7 +2244,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2270,7 +2269,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2295,7 +2294,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2320,7 +2319,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2345,7 +2344,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2370,7 +2369,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2395,7 +2394,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2420,7 +2419,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2445,7 +2444,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2470,7 +2469,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2495,7 +2494,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2520,7 +2519,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2545,7 +2544,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2570,7 +2569,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2595,7 +2594,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2620,7 +2619,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2645,7 +2644,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2670,7 +2669,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2695,7 +2694,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2720,7 +2719,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2745,7 +2744,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2770,7 +2769,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2795,7 +2794,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2820,7 +2819,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2845,7 +2844,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2870,7 +2869,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2895,7 +2894,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2920,7 +2919,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2945,7 +2944,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2970,7 +2969,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2995,7 +2994,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3020,7 +3019,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3045,7 +3044,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3070,7 +3069,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3095,7 +3094,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3120,7 +3119,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3145,7 +3144,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3170,7 +3169,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3195,7 +3194,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3220,7 +3219,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3245,7 +3244,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3270,7 +3269,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3295,7 +3294,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3320,7 +3319,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3345,7 +3344,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3370,7 +3369,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3395,7 +3394,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3420,7 +3419,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3445,7 +3444,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3470,7 +3469,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3495,7 +3494,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3520,7 +3519,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3545,7 +3544,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3570,7 +3569,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3595,7 +3594,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3620,7 +3619,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3645,7 +3644,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3670,7 +3669,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3695,7 +3694,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3720,7 +3719,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3745,7 +3744,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3770,7 +3769,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3795,7 +3794,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3820,7 +3819,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3845,7 +3844,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3870,7 +3869,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3895,7 +3894,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3920,7 +3919,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3945,7 +3944,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3970,7 +3969,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3995,7 +3994,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4020,7 +4019,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4045,7 +4044,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4070,7 +4069,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4095,7 +4094,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4120,7 +4119,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4145,7 +4144,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4170,7 +4169,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4195,7 +4194,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4220,7 +4219,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4245,7 +4244,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4270,7 +4269,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4295,7 +4294,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4320,7 +4319,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4345,7 +4344,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4370,7 +4369,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4395,7 +4394,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4420,7 +4419,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4445,7 +4444,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4470,7 +4469,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4495,7 +4494,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4520,7 +4519,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4545,7 +4544,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4570,7 +4569,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4595,7 +4594,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4620,7 +4619,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4645,7 +4644,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4670,7 +4669,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4695,7 +4694,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4720,7 +4719,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4745,7 +4744,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4770,7 +4769,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4795,7 +4794,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4820,7 +4819,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4845,7 +4844,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4870,7 +4869,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4895,7 +4894,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4920,7 +4919,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4945,7 +4944,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4970,7 +4969,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4995,7 +4994,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5020,7 +5019,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5045,7 +5044,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5070,7 +5069,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5095,7 +5094,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5120,7 +5119,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5145,7 +5144,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5170,7 +5169,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5195,7 +5194,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5220,7 +5219,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5245,7 +5244,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5270,7 +5269,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5295,7 +5294,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5320,7 +5319,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5345,7 +5344,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5370,7 +5369,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5395,7 +5394,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5420,7 +5419,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5445,7 +5444,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5470,7 +5469,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5495,7 +5494,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5520,7 +5519,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5545,7 +5544,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5570,7 +5569,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5595,7 +5594,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5620,7 +5619,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5645,7 +5644,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5670,7 +5669,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5695,7 +5694,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5720,7 +5719,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5745,7 +5744,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5770,7 +5769,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5795,7 +5794,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5820,7 +5819,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5845,7 +5844,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5870,7 +5869,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5895,7 +5894,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5920,7 +5919,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5945,7 +5944,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5970,7 +5969,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5995,7 +5994,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6020,7 +6019,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6045,7 +6044,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6070,7 +6069,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6095,7 +6094,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6120,7 +6119,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6145,7 +6144,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6170,7 +6169,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6195,7 +6194,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6220,7 +6219,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6245,7 +6244,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6270,7 +6269,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6295,7 +6294,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -6320,7 +6319,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6345,7 +6344,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6370,7 +6369,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -6395,7 +6394,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -6420,7 +6419,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -6445,7 +6444,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6470,7 +6469,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6495,7 +6494,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6520,7 +6519,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6545,7 +6544,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6570,7 +6569,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6595,7 +6594,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6620,7 +6619,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6645,7 +6644,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6670,7 +6669,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6695,7 +6694,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6720,7 +6719,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6745,7 +6744,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6770,7 +6769,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6795,7 +6794,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6820,7 +6819,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -6845,7 +6844,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -6870,7 +6869,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -6895,7 +6894,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -6920,7 +6919,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -6945,7 +6944,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -6970,7 +6969,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -6995,7 +6994,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -7020,7 +7019,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -7045,7 +7044,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -7070,7 +7069,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -7095,7 +7094,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -7120,7 +7119,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -7145,7 +7144,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -7170,7 +7169,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -7195,7 +7194,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -7220,7 +7219,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -7245,7 +7244,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -7270,7 +7269,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -7295,7 +7294,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -7320,7 +7319,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -7345,7 +7344,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -7370,7 +7369,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -7395,7 +7394,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -7420,7 +7419,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -7445,7 +7444,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -7470,7 +7469,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -7495,7 +7494,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -7520,7 +7519,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -7545,7 +7544,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -7570,7 +7569,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -7595,7 +7594,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -7620,7 +7619,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -7645,7 +7644,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -7670,7 +7669,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -7695,7 +7694,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -7720,7 +7719,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -7745,7 +7744,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -7770,7 +7769,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -7795,7 +7794,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -7820,7 +7819,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -7845,7 +7844,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -7870,7 +7869,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -7895,7 +7894,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -7920,7 +7919,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -7945,7 +7944,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -7970,7 +7969,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -7995,7 +7994,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -8020,7 +8019,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -8045,7 +8044,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -8070,7 +8069,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -8095,7 +8094,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -8120,7 +8119,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -8145,7 +8144,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -8170,7 +8169,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -8195,7 +8194,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -8220,7 +8219,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -8245,7 +8244,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -8270,7 +8269,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -8295,7 +8294,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -8320,7 +8319,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -8345,7 +8344,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -8370,7 +8369,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -8395,7 +8394,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -8420,7 +8419,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -8445,7 +8444,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -8470,7 +8469,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -8495,7 +8494,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -8520,7 +8519,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -8545,7 +8544,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -8570,7 +8569,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -8595,7 +8594,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -8620,7 +8619,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -8645,7 +8644,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -8670,7 +8669,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -8695,7 +8694,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -8720,7 +8719,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -8745,7 +8744,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -8770,7 +8769,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -8795,7 +8794,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -8820,7 +8819,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -8845,7 +8844,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -8870,7 +8869,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -8895,7 +8894,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -8920,7 +8919,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -8945,7 +8944,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -8970,7 +8969,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -8995,7 +8994,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -9020,7 +9019,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -9045,7 +9044,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -9070,7 +9069,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -9095,7 +9094,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -9120,7 +9119,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -9145,7 +9144,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -9170,7 +9169,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -9195,7 +9194,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -9220,7 +9219,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -9245,7 +9244,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -9270,7 +9269,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -9295,7 +9294,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -9320,7 +9319,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -9345,7 +9344,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -9370,7 +9369,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -9395,7 +9394,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -9420,7 +9419,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -9445,7 +9444,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -9470,7 +9469,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -9495,7 +9494,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -9520,7 +9519,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -9545,7 +9544,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -9570,7 +9569,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -9595,7 +9594,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -9620,7 +9619,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -9645,7 +9644,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -9670,7 +9669,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -9695,7 +9694,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -9720,7 +9719,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -9745,7 +9744,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -9770,7 +9769,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -9795,7 +9794,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -9820,7 +9819,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -9845,7 +9844,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -9870,7 +9869,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -9895,7 +9894,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -9920,7 +9919,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -9945,7 +9944,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -9970,7 +9969,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -9995,7 +9994,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -10020,7 +10019,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -10045,7 +10044,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -10070,7 +10069,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -10095,7 +10094,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -10120,7 +10119,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -10145,7 +10144,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -10170,7 +10169,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -10195,7 +10194,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -10220,7 +10219,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -10245,7 +10244,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -10270,7 +10269,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -10295,7 +10294,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -10320,7 +10319,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -10345,7 +10344,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -10370,7 +10369,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -10395,7 +10394,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -10420,7 +10419,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -10445,7 +10444,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -10470,7 +10469,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -10495,7 +10494,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -10520,7 +10519,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -10545,7 +10544,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -10570,7 +10569,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -10595,7 +10594,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -10620,7 +10619,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -10645,7 +10644,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -10670,7 +10669,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -10695,7 +10694,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -10720,7 +10719,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -10745,7 +10744,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -10770,7 +10769,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -10795,7 +10794,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -10820,7 +10819,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -10845,7 +10844,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -10870,7 +10869,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -10895,7 +10894,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -10920,7 +10919,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -10945,7 +10944,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -10970,7 +10969,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -10995,7 +10994,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -11020,7 +11019,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -11045,7 +11044,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -11070,7 +11069,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -11095,7 +11094,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -11120,7 +11119,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -11145,7 +11144,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -11170,7 +11169,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -11195,7 +11194,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -11220,7 +11219,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -11245,7 +11244,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -11270,7 +11269,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -11295,7 +11294,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -11320,7 +11319,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -11345,7 +11344,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -11370,7 +11369,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -11395,7 +11394,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -11420,7 +11419,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -11445,7 +11444,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -11470,7 +11469,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -11495,7 +11494,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -11520,7 +11519,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -11545,7 +11544,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -11570,7 +11569,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -11595,7 +11594,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -11620,7 +11619,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -11645,7 +11644,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -11670,7 +11669,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -11695,7 +11694,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -11720,7 +11719,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -11745,7 +11744,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -11770,7 +11769,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -11795,7 +11794,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -11820,7 +11819,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -11845,7 +11844,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -11870,7 +11869,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -11895,7 +11894,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -11920,7 +11919,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -11945,7 +11944,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -11970,7 +11969,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -11995,7 +11994,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -12020,7 +12019,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -12045,7 +12044,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -12070,7 +12069,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -12095,7 +12094,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -12120,7 +12119,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -12145,7 +12144,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -12170,7 +12169,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -12195,7 +12194,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -12220,7 +12219,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -12245,7 +12244,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -12270,7 +12269,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -12295,7 +12294,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -12320,7 +12319,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -12345,7 +12344,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -12370,7 +12369,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -12395,7 +12394,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -12420,7 +12419,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -12445,7 +12444,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -12470,7 +12469,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -12495,7 +12494,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -12520,7 +12519,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -12545,7 +12544,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -12570,7 +12569,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -12595,7 +12594,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -12620,7 +12619,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -12645,7 +12644,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -12670,7 +12669,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -12695,7 +12694,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -12720,7 +12719,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -12745,7 +12744,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -12770,7 +12769,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -12795,7 +12794,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -12820,7 +12819,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -12845,7 +12844,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -12870,7 +12869,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -12895,7 +12894,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -12920,7 +12919,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -12945,7 +12944,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -12970,7 +12969,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -12995,7 +12994,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -13020,7 +13019,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -13045,7 +13044,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -13070,7 +13069,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -13095,7 +13094,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -13120,7 +13119,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -13145,7 +13144,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -13170,7 +13169,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -13195,7 +13194,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -13220,7 +13219,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -13245,7 +13244,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -13270,7 +13269,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -13295,7 +13294,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -13320,7 +13319,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -13345,7 +13344,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -13370,7 +13369,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -13395,7 +13394,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -13420,7 +13419,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -13445,7 +13444,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -13470,7 +13469,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -13495,7 +13494,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -13520,7 +13519,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -13545,7 +13544,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -13570,7 +13569,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -13595,7 +13594,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -13620,7 +13619,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -13645,7 +13644,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -13670,7 +13669,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -13695,7 +13694,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -13720,7 +13719,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -13745,7 +13744,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -13770,7 +13769,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -13795,7 +13794,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -13820,7 +13819,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -13845,7 +13844,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -13870,7 +13869,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -13895,7 +13894,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -13920,7 +13919,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -13945,7 +13944,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -13970,7 +13969,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -13995,7 +13994,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -14020,7 +14019,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -14045,7 +14044,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -14070,7 +14069,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -14095,7 +14094,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -14120,7 +14119,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -14145,7 +14144,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -14170,7 +14169,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -14195,7 +14194,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -14220,7 +14219,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -14245,7 +14244,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -14270,7 +14269,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -14295,7 +14294,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -14320,7 +14319,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -14345,7 +14344,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -14370,7 +14369,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -14395,7 +14394,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -14420,7 +14419,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -14445,7 +14444,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -14470,7 +14469,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -14495,7 +14494,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -14520,7 +14519,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -14545,7 +14544,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -14570,7 +14569,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -14595,7 +14594,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -14620,7 +14619,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -14645,7 +14644,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -14670,7 +14669,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -14695,7 +14694,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -14720,7 +14719,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -14745,7 +14744,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -14770,7 +14769,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -14795,7 +14794,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -14820,7 +14819,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -14845,7 +14844,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -14870,7 +14869,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -14895,7 +14894,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -14920,7 +14919,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -14945,7 +14944,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -14970,7 +14969,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -14995,7 +14994,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -15020,7 +15019,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -15045,7 +15044,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -15070,7 +15069,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -15095,7 +15094,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -15120,7 +15119,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -15145,7 +15144,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -15170,7 +15169,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -15195,7 +15194,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -15220,7 +15219,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -15245,7 +15244,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -15270,7 +15269,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -15295,7 +15294,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -15320,7 +15319,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -15345,7 +15344,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -15370,7 +15369,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -15395,7 +15394,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -15420,7 +15419,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -15445,7 +15444,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -15470,7 +15469,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -15495,7 +15494,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -15520,7 +15519,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -15545,7 +15544,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -15570,7 +15569,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -15595,7 +15594,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -15620,7 +15619,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -15645,7 +15644,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -15670,7 +15669,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -15695,7 +15694,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -15720,7 +15719,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -15745,7 +15744,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -15770,7 +15769,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -15795,7 +15794,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -15820,7 +15819,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -15845,7 +15844,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -15870,7 +15869,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -15895,7 +15894,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -15920,7 +15919,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -15945,7 +15944,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -15970,7 +15969,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -15995,7 +15994,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -16020,7 +16019,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -16045,7 +16044,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -16070,7 +16069,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -16095,7 +16094,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -16120,7 +16119,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -16145,7 +16144,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -16170,7 +16169,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -16195,7 +16194,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -16220,7 +16219,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -16245,7 +16244,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -16270,7 +16269,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -16295,7 +16294,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -16320,7 +16319,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -16345,7 +16344,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -16370,7 +16369,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -16395,7 +16394,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -16420,7 +16419,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -16445,7 +16444,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -16470,7 +16469,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -16495,7 +16494,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -16520,7 +16519,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -16545,7 +16544,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -16570,7 +16569,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -16595,7 +16594,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -16620,7 +16619,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -16645,7 +16644,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -16670,7 +16669,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -16695,7 +16694,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -16720,7 +16719,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -16745,7 +16744,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -16770,7 +16769,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -16795,7 +16794,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -16820,7 +16819,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -16845,7 +16844,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -16870,7 +16869,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -16895,7 +16894,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -16920,7 +16919,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -16945,7 +16944,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -16970,7 +16969,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -16995,7 +16994,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -17020,7 +17019,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -17045,7 +17044,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -17070,7 +17069,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -17095,7 +17094,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -17120,7 +17119,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -17145,7 +17144,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -17170,7 +17169,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -17195,7 +17194,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -17220,7 +17219,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -17245,7 +17244,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -17270,7 +17269,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -17295,7 +17294,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -17320,7 +17319,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -17345,7 +17344,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -17370,7 +17369,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -17395,7 +17394,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -17420,7 +17419,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -17445,7 +17444,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -17470,7 +17469,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -17495,7 +17494,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -17520,7 +17519,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -17545,7 +17544,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -17570,7 +17569,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -17595,7 +17594,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -17620,7 +17619,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -17645,7 +17644,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -17670,7 +17669,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -17695,7 +17694,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -17720,7 +17719,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -17745,7 +17744,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -17770,7 +17769,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -17795,7 +17794,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -17820,7 +17819,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -17845,7 +17844,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -17870,7 +17869,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -17895,7 +17894,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -17920,7 +17919,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -17945,7 +17944,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -17970,7 +17969,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -17995,7 +17994,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -18020,7 +18019,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -18045,7 +18044,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -18070,7 +18069,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -18095,7 +18094,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -18120,7 +18119,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -18145,7 +18144,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -18170,7 +18169,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -18195,7 +18194,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -18220,7 +18219,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -18245,7 +18244,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -18270,7 +18269,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -18295,7 +18294,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -18320,7 +18319,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -18345,7 +18344,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -18370,7 +18369,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -18395,7 +18394,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -18420,7 +18419,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -18445,7 +18444,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -18470,7 +18469,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -18495,7 +18494,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -18520,7 +18519,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -18545,7 +18544,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -18570,7 +18569,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -18595,7 +18594,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -18620,7 +18619,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -18645,7 +18644,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -18670,7 +18669,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -18695,7 +18694,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -18720,7 +18719,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -18745,7 +18744,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -18770,7 +18769,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -18795,7 +18794,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -18820,7 +18819,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -18845,7 +18844,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -18870,7 +18869,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -18895,7 +18894,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -18920,7 +18919,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -18945,7 +18944,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -18970,7 +18969,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -18995,7 +18994,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -19020,7 +19019,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -19045,7 +19044,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -19070,7 +19069,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -19095,7 +19094,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -19120,7 +19119,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -19145,7 +19144,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -19170,7 +19169,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -19195,7 +19194,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -19220,7 +19219,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -19245,7 +19244,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -19270,7 +19269,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -19295,7 +19294,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -19320,7 +19319,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -19345,7 +19344,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -19370,7 +19369,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -19395,7 +19394,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -19420,7 +19419,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -19445,7 +19444,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -19470,7 +19469,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -19495,7 +19494,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -19520,7 +19519,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -19545,7 +19544,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -19570,7 +19569,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -19595,7 +19594,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -19620,7 +19619,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -19645,7 +19644,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -19670,7 +19669,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -19695,7 +19694,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -19720,7 +19719,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -19745,7 +19744,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -19770,7 +19769,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -19795,7 +19794,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -19820,7 +19819,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -19845,7 +19844,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -19870,7 +19869,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -19895,7 +19894,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -19920,7 +19919,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -19945,7 +19944,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -19970,7 +19969,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -19995,7 +19994,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -20020,7 +20019,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -20045,7 +20044,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -20070,7 +20069,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -20095,7 +20094,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -20120,7 +20119,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -20145,7 +20144,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -20170,7 +20169,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -20195,7 +20194,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -20220,7 +20219,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -20245,7 +20244,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -20270,7 +20269,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -20295,7 +20294,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -20320,7 +20319,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -20345,7 +20344,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -20370,7 +20369,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -20395,7 +20394,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -20420,7 +20419,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -20445,7 +20444,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -20470,7 +20469,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -20495,7 +20494,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -20520,7 +20519,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -20545,7 +20544,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -20570,7 +20569,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -20595,7 +20594,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -20620,7 +20619,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -20645,7 +20644,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -20670,7 +20669,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -20695,7 +20694,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -20720,7 +20719,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -20745,7 +20744,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -20770,7 +20769,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -20795,7 +20794,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -20820,7 +20819,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -20845,7 +20844,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -20870,7 +20869,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -20895,7 +20894,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -20920,7 +20919,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -20945,7 +20944,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -20970,7 +20969,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -20995,7 +20994,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -21020,7 +21019,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -21045,7 +21044,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -21070,7 +21069,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -21095,7 +21094,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -21120,7 +21119,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -21145,7 +21144,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -21170,7 +21169,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -21195,7 +21194,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -21220,7 +21219,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -21245,7 +21244,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -21270,7 +21269,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -21295,7 +21294,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -21320,7 +21319,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -21345,7 +21344,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -21370,7 +21369,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -21395,7 +21394,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -21420,7 +21419,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -21445,7 +21444,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -21470,7 +21469,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -21495,7 +21494,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -21520,7 +21519,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -21545,7 +21544,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -21570,7 +21569,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -21595,7 +21594,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -21620,7 +21619,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -21645,7 +21644,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -21670,7 +21669,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -21695,7 +21694,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -21720,7 +21719,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -21745,7 +21744,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -21770,7 +21769,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -21795,7 +21794,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -21820,7 +21819,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -21845,7 +21844,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -21870,7 +21869,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -21895,7 +21894,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -21920,7 +21919,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -21945,7 +21944,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -21970,7 +21969,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -21995,7 +21994,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -22020,7 +22019,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -22045,7 +22044,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -22070,7 +22069,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -22095,7 +22094,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -22120,7 +22119,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -22145,7 +22144,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -22170,7 +22169,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -22195,7 +22194,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -22220,7 +22219,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -22245,7 +22244,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -22270,7 +22269,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -22295,7 +22294,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -22320,7 +22319,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -22345,7 +22344,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -22370,7 +22369,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -22395,7 +22394,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -22420,7 +22419,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -22445,7 +22444,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -22470,7 +22469,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -22495,7 +22494,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -22520,7 +22519,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -22545,7 +22544,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -22570,7 +22569,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -22595,7 +22594,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -22620,7 +22619,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -22645,7 +22644,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -22670,7 +22669,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -22695,7 +22694,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -22720,7 +22719,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -22745,7 +22744,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -22770,7 +22769,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -22795,7 +22794,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -22820,7 +22819,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -22845,7 +22844,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -22870,7 +22869,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -22895,7 +22894,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -22920,7 +22919,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -22945,7 +22944,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -22970,7 +22969,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -22995,7 +22994,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -23020,7 +23019,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -23045,7 +23044,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -23070,7 +23069,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -23095,7 +23094,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -23120,7 +23119,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -23145,7 +23144,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -23170,7 +23169,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -23195,7 +23194,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -23220,7 +23219,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -23245,7 +23244,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -23270,7 +23269,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -23295,7 +23294,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -23320,7 +23319,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -23345,7 +23344,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -23370,7 +23369,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -23395,7 +23394,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -23420,7 +23419,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -23445,7 +23444,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
@@ -23470,7 +23469,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
@@ -23495,7 +23494,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -23520,7 +23519,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -23545,7 +23544,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -23570,7 +23569,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -23595,7 +23594,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -23620,7 +23619,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -23645,7 +23644,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -23670,7 +23669,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -23695,7 +23694,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -23720,7 +23719,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -23745,7 +23744,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -23770,7 +23769,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -23795,7 +23794,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -23820,7 +23819,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -23845,7 +23844,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -23870,7 +23869,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -23895,7 +23894,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -23920,7 +23919,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -23945,7 +23944,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -23970,7 +23969,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -23995,7 +23994,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -24020,7 +24019,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -24045,7 +24044,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -24070,7 +24069,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -24095,7 +24094,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -24120,7 +24119,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -24145,7 +24144,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
@@ -24170,7 +24169,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -24195,7 +24194,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -24220,7 +24219,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -24245,7 +24244,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -24270,7 +24269,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -24295,7 +24294,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -24320,7 +24319,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -24345,7 +24344,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -24370,7 +24369,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -24395,7 +24394,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -24420,7 +24419,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -24445,7 +24444,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -24470,7 +24469,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -24495,7 +24494,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -24520,7 +24519,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -24545,7 +24544,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -24570,7 +24569,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -24595,7 +24594,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -24620,7 +24619,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -24645,7 +24644,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -24670,7 +24669,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -24695,7 +24694,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -24720,7 +24719,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -24745,7 +24744,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -24770,7 +24769,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -24795,7 +24794,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -24820,7 +24819,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -24845,7 +24844,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>
@@ -24870,7 +24869,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
       <c r="D942" s="1"/>
@@ -24895,7 +24894,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
       <c r="D943" s="1"/>
@@ -24920,7 +24919,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
       <c r="D944" s="1"/>
@@ -24945,7 +24944,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
       <c r="D945" s="1"/>
@@ -24970,7 +24969,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
       <c r="D946" s="1"/>
@@ -24995,7 +24994,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
       <c r="D947" s="1"/>
@@ -25020,7 +25019,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
       <c r="D948" s="1"/>
@@ -25045,7 +25044,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
       <c r="D949" s="1"/>
@@ -25070,7 +25069,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
       <c r="D950" s="1"/>
@@ -25095,7 +25094,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
       <c r="D951" s="1"/>
@@ -25120,7 +25119,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
       <c r="D952" s="1"/>
@@ -25145,7 +25144,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
       <c r="D953" s="1"/>
@@ -25170,7 +25169,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
       <c r="D954" s="1"/>
@@ -25195,7 +25194,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
       <c r="D955" s="1"/>
@@ -25220,7 +25219,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
       <c r="D956" s="1"/>
@@ -25245,7 +25244,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
       <c r="D957" s="1"/>
@@ -25270,7 +25269,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
       <c r="D958" s="1"/>
@@ -25295,7 +25294,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
       <c r="D959" s="1"/>
@@ -25320,7 +25319,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
       <c r="D960" s="1"/>
@@ -25345,7 +25344,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
       <c r="D961" s="1"/>
@@ -25370,7 +25369,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
       <c r="D962" s="1"/>
@@ -25395,7 +25394,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
@@ -25420,7 +25419,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
       <c r="D964" s="1"/>
@@ -25445,7 +25444,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
       <c r="D965" s="1"/>
@@ -25470,7 +25469,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
       <c r="D966" s="1"/>
@@ -25495,7 +25494,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
@@ -25520,7 +25519,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
       <c r="D968" s="1"/>
@@ -25545,7 +25544,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
       <c r="D969" s="1"/>
@@ -25570,7 +25569,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
       <c r="D970" s="1"/>
@@ -25595,7 +25594,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
       <c r="D971" s="1"/>
@@ -25620,7 +25619,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
       <c r="D972" s="1"/>
@@ -25645,7 +25644,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
       <c r="D973" s="1"/>
@@ -25670,7 +25669,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
       <c r="D974" s="1"/>
@@ -25695,7 +25694,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
       <c r="D975" s="1"/>
@@ -25720,7 +25719,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
       <c r="D976" s="1"/>
@@ -25745,7 +25744,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
       <c r="D977" s="1"/>
@@ -25770,7 +25769,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
       <c r="D978" s="1"/>
@@ -25795,7 +25794,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
       <c r="D979" s="1"/>
@@ -25820,7 +25819,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
       <c r="D980" s="1"/>
@@ -25845,7 +25844,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
       <c r="D981" s="1"/>
@@ -25870,7 +25869,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
       <c r="D982" s="1"/>
@@ -25895,7 +25894,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
       <c r="D983" s="1"/>
@@ -25920,7 +25919,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
       <c r="D984" s="1"/>
@@ -25945,7 +25944,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
       <c r="D985" s="1"/>
@@ -25970,7 +25969,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
     </row>
-    <row r="986" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
       <c r="D986" s="1"/>
@@ -25995,7 +25994,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
     </row>
-    <row r="987" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
       <c r="D987" s="1"/>
@@ -26020,7 +26019,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
     </row>
-    <row r="988" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
       <c r="D988" s="1"/>
@@ -26045,7 +26044,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
     </row>
-    <row r="989" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
@@ -26070,7 +26069,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
     </row>
-    <row r="990" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
       <c r="D990" s="1"/>
@@ -26095,7 +26094,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
     </row>
-    <row r="991" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
       <c r="D991" s="1"/>
@@ -26120,7 +26119,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
     </row>
-    <row r="992" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
       <c r="D992" s="1"/>
@@ -26145,7 +26144,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
     </row>
-    <row r="993" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
       <c r="D993" s="1"/>
@@ -26170,7 +26169,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
       <c r="D994" s="1"/>
@@ -26195,7 +26194,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
     </row>
-    <row r="995" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
       <c r="D995" s="1"/>
@@ -26220,7 +26219,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
       <c r="D996" s="1"/>
@@ -26245,7 +26244,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
       <c r="D997" s="1"/>
@@ -26270,7 +26269,7 @@
       <c r="W997" s="1"/>
       <c r="X997" s="1"/>
     </row>
-    <row r="998" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
       <c r="D998" s="1"/>
